--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_5_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_5_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05110261464994238</v>
       </c>
       <c r="F2" t="n">
-        <v>3.791902797500348</v>
+        <v>3.791905998064211</v>
       </c>
       <c r="G2" t="n">
-        <v>3.656683087874558</v>
+        <v>3.655006936449253</v>
       </c>
       <c r="H2" t="n">
-        <v>3.925435877404619</v>
+        <v>3.927891027544804</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6575138625341908</v>
+        <v>0.6575436459705882</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6451693287725642</v>
+        <v>0.6451205274299479</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6698221184405524</v>
+        <v>0.6699844888469959</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05106599343196773</v>
+        <v>0.05106875349375613</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05010392520676751</v>
+        <v>0.0501028522769696</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05202676746241641</v>
+        <v>0.05204540458252823</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0007182774436394636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003190300499516979</v>
+        <v>0.003190553198236875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002437241770476341</v>
+        <v>0.002448518993926348</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004017728959501197</v>
+        <v>0.004017933648984876</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002955858934183633</v>
+        <v>0.002956082307812001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002250607639470428</v>
+        <v>0.002261242721825301</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003726804843377983</v>
+        <v>0.003727065621037281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003331815689151348</v>
+        <v>0.003332092190882778</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002564555804244613</v>
+        <v>0.002576179898916328</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00417281757827831</v>
+        <v>0.004172956613536049</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05182089209358184</v>
       </c>
       <c r="F4" t="n">
-        <v>3.795093097999865</v>
+        <v>3.795096551262448</v>
       </c>
       <c r="G4" t="n">
-        <v>3.659120329645035</v>
+        <v>3.65745545544318</v>
       </c>
       <c r="H4" t="n">
-        <v>3.92945360636412</v>
+        <v>3.931908961193789</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6604697214683743</v>
+        <v>0.6604997282784003</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6474199364120345</v>
+        <v>0.6473817701517732</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6735489232839302</v>
+        <v>0.6737115544680332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05439780912111908</v>
+        <v>0.0544008456846389</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05266848101101212</v>
+        <v>0.05267903217588593</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05619958504069472</v>
+        <v>0.05621836119606428</v>
       </c>
     </row>
   </sheetData>
